--- a/pred_ohlcv/54_21/2020-01-16 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ORBS ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>-1005863.4145</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>911881.1539</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>295632.4195000001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>391482.88042664</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>388616.2747602201</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>370642.0013602201</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>370642.0013602201</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>511707.9801266401</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1536881.192334117</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1668597.316334117</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1668597.316334117</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1853842.198334117</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1857578.703934117</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1857578.703934117</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1893578.703934117</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1893578.703934117</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1863723.551134117</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1863723.551134117</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1791819.625534117</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1791819.625534117</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2019003.707934117</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2108759.763034117</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1944783.117834117</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1944783.117834117</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ORBS ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-814848.2086</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1005863.4145</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-835514.9031999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>314987.3003000001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>295632.4195000001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>290632.4195000001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>435716.60582664</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>391482.88042664</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>370642.0013602201</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>511707.9801266401</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1505137.639234117</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1535023.786234117</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1535023.786234117</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1536470.786234117</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1579157.317334117</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1587096.833434117</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1588564.833434117</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1605383.749434117</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1759278.461334117</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1668597.316334117</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1742724.311234117</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1755744.467034117</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1755744.467034117</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1855744.467034117</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2019003.707934117</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1980624.620734117</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2108759.763034117</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1944783.117834117</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1944783.117834117</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1944683.117834117</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
